--- a/documnets/外部設計（個人）/外部設計書_ヨッシーアイランド (安藤).xlsx
+++ b/documnets/外部設計（個人）/外部設計書_ヨッシーアイランド (安藤).xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C-3\documnets\外部設計（個人）\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4D32CE3-A7A8-40F5-98FD-1662D0476B06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{252EC9C4-88DE-41B5-B51B-32FE58D5239F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15570" yWindow="2070" windowWidth="13035" windowHeight="7875" firstSheet="8" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ログインページ" sheetId="20" r:id="rId1"/>
@@ -887,10 +887,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>p_month</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>month</t>
     <phoneticPr fontId="4"/>
   </si>
@@ -1104,6 +1100,10 @@
   </si>
   <si>
     <t>top</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>l_month</t>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -1939,24 +1939,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1987,9 +1970,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2007,6 +1987,27 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="31" fontId="5" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2044,7 +2045,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -13880,146 +13880,146 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="79" t="s">
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
-      <c r="W1" s="79" t="s">
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
+      <c r="S1" s="74"/>
+      <c r="T1" s="74"/>
+      <c r="U1" s="74"/>
+      <c r="V1" s="74"/>
+      <c r="W1" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="79"/>
-      <c r="Y1" s="79"/>
-      <c r="Z1" s="79"/>
-      <c r="AA1" s="79"/>
-      <c r="AB1" s="79"/>
-      <c r="AC1" s="79"/>
-      <c r="AD1" s="79"/>
-      <c r="AE1" s="79"/>
-      <c r="AF1" s="80" t="s">
+      <c r="X1" s="74"/>
+      <c r="Y1" s="74"/>
+      <c r="Z1" s="74"/>
+      <c r="AA1" s="74"/>
+      <c r="AB1" s="74"/>
+      <c r="AC1" s="74"/>
+      <c r="AD1" s="74"/>
+      <c r="AE1" s="74"/>
+      <c r="AF1" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="80"/>
-      <c r="AH1" s="64"/>
-      <c r="AI1" s="64"/>
-      <c r="AJ1" s="64"/>
-      <c r="AK1" s="64"/>
-      <c r="AL1" s="64"/>
-      <c r="AM1" s="64"/>
-      <c r="AN1" s="65"/>
+      <c r="AG1" s="87"/>
+      <c r="AH1" s="81"/>
+      <c r="AI1" s="81"/>
+      <c r="AJ1" s="81"/>
+      <c r="AK1" s="81"/>
+      <c r="AL1" s="81"/>
+      <c r="AM1" s="81"/>
+      <c r="AN1" s="82"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1">
-      <c r="A2" s="73"/>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="66" t="s">
+      <c r="A2" s="68"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="66"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="66"/>
-      <c r="O2" s="66"/>
-      <c r="P2" s="66"/>
-      <c r="Q2" s="66"/>
-      <c r="R2" s="66"/>
-      <c r="S2" s="66"/>
-      <c r="T2" s="66"/>
-      <c r="U2" s="66"/>
-      <c r="V2" s="66"/>
-      <c r="W2" s="66" t="s">
+      <c r="L2" s="83"/>
+      <c r="M2" s="83"/>
+      <c r="N2" s="83"/>
+      <c r="O2" s="83"/>
+      <c r="P2" s="83"/>
+      <c r="Q2" s="83"/>
+      <c r="R2" s="83"/>
+      <c r="S2" s="83"/>
+      <c r="T2" s="83"/>
+      <c r="U2" s="83"/>
+      <c r="V2" s="83"/>
+      <c r="W2" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="66"/>
-      <c r="Y2" s="66"/>
-      <c r="Z2" s="66"/>
-      <c r="AA2" s="66"/>
-      <c r="AB2" s="66"/>
-      <c r="AC2" s="66"/>
-      <c r="AD2" s="66"/>
-      <c r="AE2" s="66"/>
-      <c r="AF2" s="67" t="s">
+      <c r="X2" s="83"/>
+      <c r="Y2" s="83"/>
+      <c r="Z2" s="83"/>
+      <c r="AA2" s="83"/>
+      <c r="AB2" s="83"/>
+      <c r="AC2" s="83"/>
+      <c r="AD2" s="83"/>
+      <c r="AE2" s="83"/>
+      <c r="AF2" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="67"/>
-      <c r="AH2" s="68"/>
-      <c r="AI2" s="68"/>
-      <c r="AJ2" s="68"/>
-      <c r="AK2" s="68"/>
-      <c r="AL2" s="68"/>
-      <c r="AM2" s="68"/>
-      <c r="AN2" s="69"/>
+      <c r="AG2" s="84"/>
+      <c r="AH2" s="85"/>
+      <c r="AI2" s="85"/>
+      <c r="AJ2" s="85"/>
+      <c r="AK2" s="85"/>
+      <c r="AL2" s="85"/>
+      <c r="AM2" s="85"/>
+      <c r="AN2" s="86"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1">
-      <c r="A3" s="76"/>
-      <c r="B3" s="77"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="81" t="s">
+      <c r="A3" s="71"/>
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="82"/>
-      <c r="M3" s="83"/>
-      <c r="N3" s="84"/>
-      <c r="O3" s="85"/>
-      <c r="P3" s="85"/>
-      <c r="Q3" s="85"/>
-      <c r="R3" s="85"/>
-      <c r="S3" s="85"/>
-      <c r="T3" s="85"/>
-      <c r="U3" s="85"/>
-      <c r="V3" s="85"/>
-      <c r="W3" s="85"/>
-      <c r="X3" s="85"/>
-      <c r="Y3" s="85"/>
-      <c r="Z3" s="85"/>
-      <c r="AA3" s="85"/>
-      <c r="AB3" s="85"/>
-      <c r="AC3" s="85"/>
-      <c r="AD3" s="85"/>
-      <c r="AE3" s="85"/>
-      <c r="AF3" s="85"/>
-      <c r="AG3" s="85"/>
-      <c r="AH3" s="85"/>
-      <c r="AI3" s="85"/>
-      <c r="AJ3" s="85"/>
-      <c r="AK3" s="85"/>
-      <c r="AL3" s="85"/>
-      <c r="AM3" s="85"/>
-      <c r="AN3" s="86"/>
+      <c r="L3" s="76"/>
+      <c r="M3" s="77"/>
+      <c r="N3" s="78"/>
+      <c r="O3" s="79"/>
+      <c r="P3" s="79"/>
+      <c r="Q3" s="79"/>
+      <c r="R3" s="79"/>
+      <c r="S3" s="79"/>
+      <c r="T3" s="79"/>
+      <c r="U3" s="79"/>
+      <c r="V3" s="79"/>
+      <c r="W3" s="79"/>
+      <c r="X3" s="79"/>
+      <c r="Y3" s="79"/>
+      <c r="Z3" s="79"/>
+      <c r="AA3" s="79"/>
+      <c r="AB3" s="79"/>
+      <c r="AC3" s="79"/>
+      <c r="AD3" s="79"/>
+      <c r="AE3" s="79"/>
+      <c r="AF3" s="79"/>
+      <c r="AG3" s="79"/>
+      <c r="AH3" s="79"/>
+      <c r="AI3" s="79"/>
+      <c r="AJ3" s="79"/>
+      <c r="AK3" s="79"/>
+      <c r="AL3" s="79"/>
+      <c r="AM3" s="79"/>
+      <c r="AN3" s="80"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1">
       <c r="B4" s="2"/>
@@ -18398,146 +18398,146 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="79" t="s">
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="91"/>
-      <c r="O1" s="91"/>
-      <c r="P1" s="91"/>
-      <c r="Q1" s="91"/>
-      <c r="R1" s="91"/>
-      <c r="S1" s="91"/>
-      <c r="T1" s="91"/>
-      <c r="U1" s="91"/>
-      <c r="V1" s="91"/>
-      <c r="W1" s="91" t="s">
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="92"/>
+      <c r="O1" s="92"/>
+      <c r="P1" s="92"/>
+      <c r="Q1" s="92"/>
+      <c r="R1" s="92"/>
+      <c r="S1" s="92"/>
+      <c r="T1" s="92"/>
+      <c r="U1" s="92"/>
+      <c r="V1" s="92"/>
+      <c r="W1" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="91"/>
-      <c r="Y1" s="91"/>
-      <c r="Z1" s="91"/>
-      <c r="AA1" s="91"/>
-      <c r="AB1" s="91"/>
-      <c r="AC1" s="91"/>
-      <c r="AD1" s="91"/>
-      <c r="AE1" s="91"/>
-      <c r="AF1" s="80" t="s">
+      <c r="X1" s="92"/>
+      <c r="Y1" s="92"/>
+      <c r="Z1" s="92"/>
+      <c r="AA1" s="92"/>
+      <c r="AB1" s="92"/>
+      <c r="AC1" s="92"/>
+      <c r="AD1" s="92"/>
+      <c r="AE1" s="92"/>
+      <c r="AF1" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="80"/>
-      <c r="AH1" s="64"/>
-      <c r="AI1" s="64"/>
-      <c r="AJ1" s="64"/>
-      <c r="AK1" s="64"/>
-      <c r="AL1" s="64"/>
-      <c r="AM1" s="64"/>
-      <c r="AN1" s="65"/>
+      <c r="AG1" s="87"/>
+      <c r="AH1" s="81"/>
+      <c r="AI1" s="81"/>
+      <c r="AJ1" s="81"/>
+      <c r="AK1" s="81"/>
+      <c r="AL1" s="81"/>
+      <c r="AM1" s="81"/>
+      <c r="AN1" s="82"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1">
-      <c r="A2" s="73"/>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="90"/>
-      <c r="I2" s="90"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="66" t="s">
+      <c r="A2" s="68"/>
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="66"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="95"/>
-      <c r="O2" s="95"/>
-      <c r="P2" s="95"/>
-      <c r="Q2" s="95"/>
-      <c r="R2" s="95"/>
-      <c r="S2" s="95"/>
-      <c r="T2" s="95"/>
-      <c r="U2" s="95"/>
-      <c r="V2" s="95"/>
-      <c r="W2" s="95" t="s">
+      <c r="L2" s="83"/>
+      <c r="M2" s="83"/>
+      <c r="N2" s="96"/>
+      <c r="O2" s="96"/>
+      <c r="P2" s="96"/>
+      <c r="Q2" s="96"/>
+      <c r="R2" s="96"/>
+      <c r="S2" s="96"/>
+      <c r="T2" s="96"/>
+      <c r="U2" s="96"/>
+      <c r="V2" s="96"/>
+      <c r="W2" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="95"/>
-      <c r="Y2" s="95"/>
-      <c r="Z2" s="95"/>
-      <c r="AA2" s="95"/>
-      <c r="AB2" s="95"/>
-      <c r="AC2" s="95"/>
-      <c r="AD2" s="95"/>
-      <c r="AE2" s="95"/>
-      <c r="AF2" s="96" t="s">
+      <c r="X2" s="96"/>
+      <c r="Y2" s="96"/>
+      <c r="Z2" s="96"/>
+      <c r="AA2" s="96"/>
+      <c r="AB2" s="96"/>
+      <c r="AC2" s="96"/>
+      <c r="AD2" s="96"/>
+      <c r="AE2" s="96"/>
+      <c r="AF2" s="97" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="96"/>
-      <c r="AH2" s="97"/>
-      <c r="AI2" s="97"/>
-      <c r="AJ2" s="97"/>
-      <c r="AK2" s="97"/>
-      <c r="AL2" s="97"/>
-      <c r="AM2" s="97"/>
-      <c r="AN2" s="98"/>
+      <c r="AG2" s="97"/>
+      <c r="AH2" s="98"/>
+      <c r="AI2" s="98"/>
+      <c r="AJ2" s="98"/>
+      <c r="AK2" s="98"/>
+      <c r="AL2" s="98"/>
+      <c r="AM2" s="98"/>
+      <c r="AN2" s="99"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1">
-      <c r="A3" s="76"/>
-      <c r="B3" s="77"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="81" t="s">
+      <c r="A3" s="71"/>
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="82"/>
-      <c r="M3" s="83"/>
-      <c r="N3" s="92"/>
-      <c r="O3" s="93"/>
-      <c r="P3" s="93"/>
-      <c r="Q3" s="93"/>
-      <c r="R3" s="93"/>
-      <c r="S3" s="93"/>
-      <c r="T3" s="93"/>
-      <c r="U3" s="93"/>
-      <c r="V3" s="93"/>
-      <c r="W3" s="93"/>
-      <c r="X3" s="93"/>
-      <c r="Y3" s="93"/>
-      <c r="Z3" s="93"/>
-      <c r="AA3" s="93"/>
-      <c r="AB3" s="93"/>
-      <c r="AC3" s="93"/>
-      <c r="AD3" s="93"/>
-      <c r="AE3" s="93"/>
-      <c r="AF3" s="93"/>
-      <c r="AG3" s="93"/>
-      <c r="AH3" s="93"/>
-      <c r="AI3" s="93"/>
-      <c r="AJ3" s="93"/>
-      <c r="AK3" s="93"/>
-      <c r="AL3" s="93"/>
-      <c r="AM3" s="93"/>
-      <c r="AN3" s="94"/>
+      <c r="L3" s="76"/>
+      <c r="M3" s="77"/>
+      <c r="N3" s="93"/>
+      <c r="O3" s="94"/>
+      <c r="P3" s="94"/>
+      <c r="Q3" s="94"/>
+      <c r="R3" s="94"/>
+      <c r="S3" s="94"/>
+      <c r="T3" s="94"/>
+      <c r="U3" s="94"/>
+      <c r="V3" s="94"/>
+      <c r="W3" s="94"/>
+      <c r="X3" s="94"/>
+      <c r="Y3" s="94"/>
+      <c r="Z3" s="94"/>
+      <c r="AA3" s="94"/>
+      <c r="AB3" s="94"/>
+      <c r="AC3" s="94"/>
+      <c r="AD3" s="94"/>
+      <c r="AE3" s="94"/>
+      <c r="AF3" s="94"/>
+      <c r="AG3" s="94"/>
+      <c r="AH3" s="94"/>
+      <c r="AI3" s="94"/>
+      <c r="AJ3" s="94"/>
+      <c r="AK3" s="94"/>
+      <c r="AL3" s="94"/>
+      <c r="AM3" s="94"/>
+      <c r="AN3" s="95"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1">
       <c r="B4" s="2"/>
@@ -23020,146 +23020,146 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="79" t="s">
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="91"/>
-      <c r="O1" s="91"/>
-      <c r="P1" s="91"/>
-      <c r="Q1" s="91"/>
-      <c r="R1" s="91"/>
-      <c r="S1" s="91"/>
-      <c r="T1" s="91"/>
-      <c r="U1" s="91"/>
-      <c r="V1" s="91"/>
-      <c r="W1" s="91" t="s">
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="92"/>
+      <c r="O1" s="92"/>
+      <c r="P1" s="92"/>
+      <c r="Q1" s="92"/>
+      <c r="R1" s="92"/>
+      <c r="S1" s="92"/>
+      <c r="T1" s="92"/>
+      <c r="U1" s="92"/>
+      <c r="V1" s="92"/>
+      <c r="W1" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="91"/>
-      <c r="Y1" s="91"/>
-      <c r="Z1" s="91"/>
-      <c r="AA1" s="91"/>
-      <c r="AB1" s="91"/>
-      <c r="AC1" s="91"/>
-      <c r="AD1" s="91"/>
-      <c r="AE1" s="91"/>
-      <c r="AF1" s="80" t="s">
+      <c r="X1" s="92"/>
+      <c r="Y1" s="92"/>
+      <c r="Z1" s="92"/>
+      <c r="AA1" s="92"/>
+      <c r="AB1" s="92"/>
+      <c r="AC1" s="92"/>
+      <c r="AD1" s="92"/>
+      <c r="AE1" s="92"/>
+      <c r="AF1" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="80"/>
-      <c r="AH1" s="64"/>
-      <c r="AI1" s="64"/>
-      <c r="AJ1" s="64"/>
-      <c r="AK1" s="64"/>
-      <c r="AL1" s="64"/>
-      <c r="AM1" s="64"/>
-      <c r="AN1" s="65"/>
+      <c r="AG1" s="87"/>
+      <c r="AH1" s="81"/>
+      <c r="AI1" s="81"/>
+      <c r="AJ1" s="81"/>
+      <c r="AK1" s="81"/>
+      <c r="AL1" s="81"/>
+      <c r="AM1" s="81"/>
+      <c r="AN1" s="82"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1">
-      <c r="A2" s="73"/>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="90"/>
-      <c r="I2" s="90"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="66" t="s">
+      <c r="A2" s="68"/>
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="66"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="95"/>
-      <c r="O2" s="95"/>
-      <c r="P2" s="95"/>
-      <c r="Q2" s="95"/>
-      <c r="R2" s="95"/>
-      <c r="S2" s="95"/>
-      <c r="T2" s="95"/>
-      <c r="U2" s="95"/>
-      <c r="V2" s="95"/>
-      <c r="W2" s="95" t="s">
+      <c r="L2" s="83"/>
+      <c r="M2" s="83"/>
+      <c r="N2" s="96"/>
+      <c r="O2" s="96"/>
+      <c r="P2" s="96"/>
+      <c r="Q2" s="96"/>
+      <c r="R2" s="96"/>
+      <c r="S2" s="96"/>
+      <c r="T2" s="96"/>
+      <c r="U2" s="96"/>
+      <c r="V2" s="96"/>
+      <c r="W2" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="95"/>
-      <c r="Y2" s="95"/>
-      <c r="Z2" s="95"/>
-      <c r="AA2" s="95"/>
-      <c r="AB2" s="95"/>
-      <c r="AC2" s="95"/>
-      <c r="AD2" s="95"/>
-      <c r="AE2" s="95"/>
-      <c r="AF2" s="96" t="s">
+      <c r="X2" s="96"/>
+      <c r="Y2" s="96"/>
+      <c r="Z2" s="96"/>
+      <c r="AA2" s="96"/>
+      <c r="AB2" s="96"/>
+      <c r="AC2" s="96"/>
+      <c r="AD2" s="96"/>
+      <c r="AE2" s="96"/>
+      <c r="AF2" s="97" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="96"/>
-      <c r="AH2" s="97"/>
-      <c r="AI2" s="97"/>
-      <c r="AJ2" s="97"/>
-      <c r="AK2" s="97"/>
-      <c r="AL2" s="97"/>
-      <c r="AM2" s="97"/>
-      <c r="AN2" s="98"/>
+      <c r="AG2" s="97"/>
+      <c r="AH2" s="98"/>
+      <c r="AI2" s="98"/>
+      <c r="AJ2" s="98"/>
+      <c r="AK2" s="98"/>
+      <c r="AL2" s="98"/>
+      <c r="AM2" s="98"/>
+      <c r="AN2" s="99"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1">
-      <c r="A3" s="76"/>
-      <c r="B3" s="77"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="81" t="s">
+      <c r="A3" s="71"/>
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="82"/>
-      <c r="M3" s="83"/>
-      <c r="N3" s="92"/>
-      <c r="O3" s="93"/>
-      <c r="P3" s="93"/>
-      <c r="Q3" s="93"/>
-      <c r="R3" s="93"/>
-      <c r="S3" s="93"/>
-      <c r="T3" s="93"/>
-      <c r="U3" s="93"/>
-      <c r="V3" s="93"/>
-      <c r="W3" s="93"/>
-      <c r="X3" s="93"/>
-      <c r="Y3" s="93"/>
-      <c r="Z3" s="93"/>
-      <c r="AA3" s="93"/>
-      <c r="AB3" s="93"/>
-      <c r="AC3" s="93"/>
-      <c r="AD3" s="93"/>
-      <c r="AE3" s="93"/>
-      <c r="AF3" s="93"/>
-      <c r="AG3" s="93"/>
-      <c r="AH3" s="93"/>
-      <c r="AI3" s="93"/>
-      <c r="AJ3" s="93"/>
-      <c r="AK3" s="93"/>
-      <c r="AL3" s="93"/>
-      <c r="AM3" s="93"/>
-      <c r="AN3" s="94"/>
+      <c r="L3" s="76"/>
+      <c r="M3" s="77"/>
+      <c r="N3" s="93"/>
+      <c r="O3" s="94"/>
+      <c r="P3" s="94"/>
+      <c r="Q3" s="94"/>
+      <c r="R3" s="94"/>
+      <c r="S3" s="94"/>
+      <c r="T3" s="94"/>
+      <c r="U3" s="94"/>
+      <c r="V3" s="94"/>
+      <c r="W3" s="94"/>
+      <c r="X3" s="94"/>
+      <c r="Y3" s="94"/>
+      <c r="Z3" s="94"/>
+      <c r="AA3" s="94"/>
+      <c r="AB3" s="94"/>
+      <c r="AC3" s="94"/>
+      <c r="AD3" s="94"/>
+      <c r="AE3" s="94"/>
+      <c r="AF3" s="94"/>
+      <c r="AG3" s="94"/>
+      <c r="AH3" s="94"/>
+      <c r="AI3" s="94"/>
+      <c r="AJ3" s="94"/>
+      <c r="AK3" s="94"/>
+      <c r="AL3" s="94"/>
+      <c r="AM3" s="94"/>
+      <c r="AN3" s="95"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1">
       <c r="B4" s="2"/>
@@ -27642,146 +27642,146 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="79" t="s">
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
-      <c r="W1" s="79" t="s">
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
+      <c r="S1" s="74"/>
+      <c r="T1" s="74"/>
+      <c r="U1" s="74"/>
+      <c r="V1" s="74"/>
+      <c r="W1" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="79"/>
-      <c r="Y1" s="79"/>
-      <c r="Z1" s="79"/>
-      <c r="AA1" s="79"/>
-      <c r="AB1" s="79"/>
-      <c r="AC1" s="79"/>
-      <c r="AD1" s="79"/>
-      <c r="AE1" s="79"/>
-      <c r="AF1" s="80" t="s">
+      <c r="X1" s="74"/>
+      <c r="Y1" s="74"/>
+      <c r="Z1" s="74"/>
+      <c r="AA1" s="74"/>
+      <c r="AB1" s="74"/>
+      <c r="AC1" s="74"/>
+      <c r="AD1" s="74"/>
+      <c r="AE1" s="74"/>
+      <c r="AF1" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="80"/>
-      <c r="AH1" s="64"/>
-      <c r="AI1" s="64"/>
-      <c r="AJ1" s="64"/>
-      <c r="AK1" s="64"/>
-      <c r="AL1" s="64"/>
-      <c r="AM1" s="64"/>
-      <c r="AN1" s="65"/>
+      <c r="AG1" s="87"/>
+      <c r="AH1" s="81"/>
+      <c r="AI1" s="81"/>
+      <c r="AJ1" s="81"/>
+      <c r="AK1" s="81"/>
+      <c r="AL1" s="81"/>
+      <c r="AM1" s="81"/>
+      <c r="AN1" s="82"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1">
-      <c r="A2" s="73"/>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="66" t="s">
+      <c r="A2" s="68"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="66"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="66"/>
-      <c r="O2" s="66"/>
-      <c r="P2" s="66"/>
-      <c r="Q2" s="66"/>
-      <c r="R2" s="66"/>
-      <c r="S2" s="66"/>
-      <c r="T2" s="66"/>
-      <c r="U2" s="66"/>
-      <c r="V2" s="66"/>
-      <c r="W2" s="66" t="s">
+      <c r="L2" s="83"/>
+      <c r="M2" s="83"/>
+      <c r="N2" s="83"/>
+      <c r="O2" s="83"/>
+      <c r="P2" s="83"/>
+      <c r="Q2" s="83"/>
+      <c r="R2" s="83"/>
+      <c r="S2" s="83"/>
+      <c r="T2" s="83"/>
+      <c r="U2" s="83"/>
+      <c r="V2" s="83"/>
+      <c r="W2" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="66"/>
-      <c r="Y2" s="66"/>
-      <c r="Z2" s="66"/>
-      <c r="AA2" s="66"/>
-      <c r="AB2" s="66"/>
-      <c r="AC2" s="66"/>
-      <c r="AD2" s="66"/>
-      <c r="AE2" s="66"/>
-      <c r="AF2" s="67" t="s">
+      <c r="X2" s="83"/>
+      <c r="Y2" s="83"/>
+      <c r="Z2" s="83"/>
+      <c r="AA2" s="83"/>
+      <c r="AB2" s="83"/>
+      <c r="AC2" s="83"/>
+      <c r="AD2" s="83"/>
+      <c r="AE2" s="83"/>
+      <c r="AF2" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="67"/>
-      <c r="AH2" s="68"/>
-      <c r="AI2" s="68"/>
-      <c r="AJ2" s="68"/>
-      <c r="AK2" s="68"/>
-      <c r="AL2" s="68"/>
-      <c r="AM2" s="68"/>
-      <c r="AN2" s="69"/>
+      <c r="AG2" s="84"/>
+      <c r="AH2" s="85"/>
+      <c r="AI2" s="85"/>
+      <c r="AJ2" s="85"/>
+      <c r="AK2" s="85"/>
+      <c r="AL2" s="85"/>
+      <c r="AM2" s="85"/>
+      <c r="AN2" s="86"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1">
-      <c r="A3" s="76"/>
-      <c r="B3" s="77"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="81" t="s">
+      <c r="A3" s="71"/>
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="82"/>
-      <c r="M3" s="83"/>
-      <c r="N3" s="84"/>
-      <c r="O3" s="85"/>
-      <c r="P3" s="85"/>
-      <c r="Q3" s="85"/>
-      <c r="R3" s="85"/>
-      <c r="S3" s="85"/>
-      <c r="T3" s="85"/>
-      <c r="U3" s="85"/>
-      <c r="V3" s="85"/>
-      <c r="W3" s="85"/>
-      <c r="X3" s="85"/>
-      <c r="Y3" s="85"/>
-      <c r="Z3" s="85"/>
-      <c r="AA3" s="85"/>
-      <c r="AB3" s="85"/>
-      <c r="AC3" s="85"/>
-      <c r="AD3" s="85"/>
-      <c r="AE3" s="85"/>
-      <c r="AF3" s="85"/>
-      <c r="AG3" s="85"/>
-      <c r="AH3" s="85"/>
-      <c r="AI3" s="85"/>
-      <c r="AJ3" s="85"/>
-      <c r="AK3" s="85"/>
-      <c r="AL3" s="85"/>
-      <c r="AM3" s="85"/>
-      <c r="AN3" s="86"/>
+      <c r="L3" s="76"/>
+      <c r="M3" s="77"/>
+      <c r="N3" s="78"/>
+      <c r="O3" s="79"/>
+      <c r="P3" s="79"/>
+      <c r="Q3" s="79"/>
+      <c r="R3" s="79"/>
+      <c r="S3" s="79"/>
+      <c r="T3" s="79"/>
+      <c r="U3" s="79"/>
+      <c r="V3" s="79"/>
+      <c r="W3" s="79"/>
+      <c r="X3" s="79"/>
+      <c r="Y3" s="79"/>
+      <c r="Z3" s="79"/>
+      <c r="AA3" s="79"/>
+      <c r="AB3" s="79"/>
+      <c r="AC3" s="79"/>
+      <c r="AD3" s="79"/>
+      <c r="AE3" s="79"/>
+      <c r="AF3" s="79"/>
+      <c r="AG3" s="79"/>
+      <c r="AH3" s="79"/>
+      <c r="AI3" s="79"/>
+      <c r="AJ3" s="79"/>
+      <c r="AK3" s="79"/>
+      <c r="AL3" s="79"/>
+      <c r="AM3" s="79"/>
+      <c r="AN3" s="80"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1">
       <c r="B4" s="2"/>
@@ -32205,146 +32205,146 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="79" t="s">
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
-      <c r="W1" s="79" t="s">
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
+      <c r="S1" s="74"/>
+      <c r="T1" s="74"/>
+      <c r="U1" s="74"/>
+      <c r="V1" s="74"/>
+      <c r="W1" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="79"/>
-      <c r="Y1" s="79"/>
-      <c r="Z1" s="79"/>
-      <c r="AA1" s="79"/>
-      <c r="AB1" s="79"/>
-      <c r="AC1" s="79"/>
-      <c r="AD1" s="79"/>
-      <c r="AE1" s="79"/>
-      <c r="AF1" s="80" t="s">
+      <c r="X1" s="74"/>
+      <c r="Y1" s="74"/>
+      <c r="Z1" s="74"/>
+      <c r="AA1" s="74"/>
+      <c r="AB1" s="74"/>
+      <c r="AC1" s="74"/>
+      <c r="AD1" s="74"/>
+      <c r="AE1" s="74"/>
+      <c r="AF1" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="80"/>
-      <c r="AH1" s="64"/>
-      <c r="AI1" s="64"/>
-      <c r="AJ1" s="64"/>
-      <c r="AK1" s="64"/>
-      <c r="AL1" s="64"/>
-      <c r="AM1" s="64"/>
-      <c r="AN1" s="65"/>
+      <c r="AG1" s="87"/>
+      <c r="AH1" s="81"/>
+      <c r="AI1" s="81"/>
+      <c r="AJ1" s="81"/>
+      <c r="AK1" s="81"/>
+      <c r="AL1" s="81"/>
+      <c r="AM1" s="81"/>
+      <c r="AN1" s="82"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1">
-      <c r="A2" s="73"/>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="66" t="s">
+      <c r="A2" s="68"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="66"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="66"/>
-      <c r="O2" s="66"/>
-      <c r="P2" s="66"/>
-      <c r="Q2" s="66"/>
-      <c r="R2" s="66"/>
-      <c r="S2" s="66"/>
-      <c r="T2" s="66"/>
-      <c r="U2" s="66"/>
-      <c r="V2" s="66"/>
-      <c r="W2" s="66" t="s">
+      <c r="L2" s="83"/>
+      <c r="M2" s="83"/>
+      <c r="N2" s="83"/>
+      <c r="O2" s="83"/>
+      <c r="P2" s="83"/>
+      <c r="Q2" s="83"/>
+      <c r="R2" s="83"/>
+      <c r="S2" s="83"/>
+      <c r="T2" s="83"/>
+      <c r="U2" s="83"/>
+      <c r="V2" s="83"/>
+      <c r="W2" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="66"/>
-      <c r="Y2" s="66"/>
-      <c r="Z2" s="66"/>
-      <c r="AA2" s="66"/>
-      <c r="AB2" s="66"/>
-      <c r="AC2" s="66"/>
-      <c r="AD2" s="66"/>
-      <c r="AE2" s="66"/>
-      <c r="AF2" s="67" t="s">
+      <c r="X2" s="83"/>
+      <c r="Y2" s="83"/>
+      <c r="Z2" s="83"/>
+      <c r="AA2" s="83"/>
+      <c r="AB2" s="83"/>
+      <c r="AC2" s="83"/>
+      <c r="AD2" s="83"/>
+      <c r="AE2" s="83"/>
+      <c r="AF2" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="67"/>
-      <c r="AH2" s="68"/>
-      <c r="AI2" s="68"/>
-      <c r="AJ2" s="68"/>
-      <c r="AK2" s="68"/>
-      <c r="AL2" s="68"/>
-      <c r="AM2" s="68"/>
-      <c r="AN2" s="69"/>
+      <c r="AG2" s="84"/>
+      <c r="AH2" s="85"/>
+      <c r="AI2" s="85"/>
+      <c r="AJ2" s="85"/>
+      <c r="AK2" s="85"/>
+      <c r="AL2" s="85"/>
+      <c r="AM2" s="85"/>
+      <c r="AN2" s="86"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1">
-      <c r="A3" s="76"/>
-      <c r="B3" s="77"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="81" t="s">
+      <c r="A3" s="71"/>
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="82"/>
-      <c r="M3" s="83"/>
-      <c r="N3" s="84"/>
-      <c r="O3" s="85"/>
-      <c r="P3" s="85"/>
-      <c r="Q3" s="85"/>
-      <c r="R3" s="85"/>
-      <c r="S3" s="85"/>
-      <c r="T3" s="85"/>
-      <c r="U3" s="85"/>
-      <c r="V3" s="85"/>
-      <c r="W3" s="85"/>
-      <c r="X3" s="85"/>
-      <c r="Y3" s="85"/>
-      <c r="Z3" s="85"/>
-      <c r="AA3" s="85"/>
-      <c r="AB3" s="85"/>
-      <c r="AC3" s="85"/>
-      <c r="AD3" s="85"/>
-      <c r="AE3" s="85"/>
-      <c r="AF3" s="85"/>
-      <c r="AG3" s="85"/>
-      <c r="AH3" s="85"/>
-      <c r="AI3" s="85"/>
-      <c r="AJ3" s="85"/>
-      <c r="AK3" s="85"/>
-      <c r="AL3" s="85"/>
-      <c r="AM3" s="85"/>
-      <c r="AN3" s="86"/>
+      <c r="L3" s="76"/>
+      <c r="M3" s="77"/>
+      <c r="N3" s="78"/>
+      <c r="O3" s="79"/>
+      <c r="P3" s="79"/>
+      <c r="Q3" s="79"/>
+      <c r="R3" s="79"/>
+      <c r="S3" s="79"/>
+      <c r="T3" s="79"/>
+      <c r="U3" s="79"/>
+      <c r="V3" s="79"/>
+      <c r="W3" s="79"/>
+      <c r="X3" s="79"/>
+      <c r="Y3" s="79"/>
+      <c r="Z3" s="79"/>
+      <c r="AA3" s="79"/>
+      <c r="AB3" s="79"/>
+      <c r="AC3" s="79"/>
+      <c r="AD3" s="79"/>
+      <c r="AE3" s="79"/>
+      <c r="AF3" s="79"/>
+      <c r="AG3" s="79"/>
+      <c r="AH3" s="79"/>
+      <c r="AI3" s="79"/>
+      <c r="AJ3" s="79"/>
+      <c r="AK3" s="79"/>
+      <c r="AL3" s="79"/>
+      <c r="AM3" s="79"/>
+      <c r="AN3" s="80"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1">
       <c r="B4" s="2"/>
@@ -36757,8 +36757,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80D97F96-DFEE-4256-9293-C09906732A7E}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView topLeftCell="B64" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D87" sqref="D87"/>
+    <sheetView tabSelected="1" topLeftCell="B64" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D79" sqref="D79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1"/>
@@ -36767,154 +36767,154 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="79" t="s">
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79" t="s">
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74" t="s">
         <v>31</v>
       </c>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
-      <c r="W1" s="79" t="s">
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
+      <c r="S1" s="74"/>
+      <c r="T1" s="74"/>
+      <c r="U1" s="74"/>
+      <c r="V1" s="74"/>
+      <c r="W1" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="79"/>
-      <c r="Y1" s="79" t="s">
+      <c r="X1" s="74"/>
+      <c r="Y1" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="Z1" s="79"/>
-      <c r="AA1" s="79"/>
-      <c r="AB1" s="79"/>
-      <c r="AC1" s="79"/>
-      <c r="AD1" s="79"/>
-      <c r="AE1" s="79"/>
-      <c r="AF1" s="80" t="s">
+      <c r="Z1" s="74"/>
+      <c r="AA1" s="74"/>
+      <c r="AB1" s="74"/>
+      <c r="AC1" s="74"/>
+      <c r="AD1" s="74"/>
+      <c r="AE1" s="74"/>
+      <c r="AF1" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="80"/>
-      <c r="AH1" s="64"/>
-      <c r="AI1" s="64"/>
-      <c r="AJ1" s="64"/>
-      <c r="AK1" s="64"/>
-      <c r="AL1" s="64"/>
-      <c r="AM1" s="64"/>
-      <c r="AN1" s="65"/>
+      <c r="AG1" s="87"/>
+      <c r="AH1" s="81"/>
+      <c r="AI1" s="81"/>
+      <c r="AJ1" s="81"/>
+      <c r="AK1" s="81"/>
+      <c r="AL1" s="81"/>
+      <c r="AM1" s="81"/>
+      <c r="AN1" s="82"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1">
-      <c r="A2" s="73"/>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="66" t="s">
+      <c r="A2" s="68"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="66"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="66" t="s">
+      <c r="L2" s="83"/>
+      <c r="M2" s="83"/>
+      <c r="N2" s="83" t="s">
         <v>30</v>
       </c>
-      <c r="O2" s="66"/>
-      <c r="P2" s="66"/>
-      <c r="Q2" s="66"/>
-      <c r="R2" s="66"/>
-      <c r="S2" s="66"/>
-      <c r="T2" s="66"/>
-      <c r="U2" s="66"/>
-      <c r="V2" s="66"/>
-      <c r="W2" s="66" t="s">
+      <c r="O2" s="83"/>
+      <c r="P2" s="83"/>
+      <c r="Q2" s="83"/>
+      <c r="R2" s="83"/>
+      <c r="S2" s="83"/>
+      <c r="T2" s="83"/>
+      <c r="U2" s="83"/>
+      <c r="V2" s="83"/>
+      <c r="W2" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="66"/>
-      <c r="Y2" s="87">
+      <c r="X2" s="83"/>
+      <c r="Y2" s="88">
         <v>44350</v>
       </c>
-      <c r="Z2" s="66"/>
-      <c r="AA2" s="66"/>
-      <c r="AB2" s="66"/>
-      <c r="AC2" s="66"/>
-      <c r="AD2" s="66"/>
-      <c r="AE2" s="66"/>
-      <c r="AF2" s="67" t="s">
+      <c r="Z2" s="83"/>
+      <c r="AA2" s="83"/>
+      <c r="AB2" s="83"/>
+      <c r="AC2" s="83"/>
+      <c r="AD2" s="83"/>
+      <c r="AE2" s="83"/>
+      <c r="AF2" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="67"/>
-      <c r="AH2" s="68"/>
-      <c r="AI2" s="68"/>
-      <c r="AJ2" s="68"/>
-      <c r="AK2" s="68"/>
-      <c r="AL2" s="68"/>
-      <c r="AM2" s="68"/>
-      <c r="AN2" s="69"/>
+      <c r="AG2" s="84"/>
+      <c r="AH2" s="85"/>
+      <c r="AI2" s="85"/>
+      <c r="AJ2" s="85"/>
+      <c r="AK2" s="85"/>
+      <c r="AL2" s="85"/>
+      <c r="AM2" s="85"/>
+      <c r="AN2" s="86"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1">
-      <c r="A3" s="76"/>
-      <c r="B3" s="77"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="81" t="s">
+      <c r="A3" s="71"/>
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="82"/>
-      <c r="M3" s="83"/>
-      <c r="N3" s="84"/>
-      <c r="O3" s="85"/>
-      <c r="P3" s="85"/>
-      <c r="Q3" s="85"/>
-      <c r="R3" s="85"/>
-      <c r="S3" s="85"/>
-      <c r="T3" s="85"/>
-      <c r="U3" s="85"/>
-      <c r="V3" s="85"/>
-      <c r="W3" s="85"/>
-      <c r="X3" s="85"/>
-      <c r="Y3" s="85"/>
-      <c r="Z3" s="85"/>
-      <c r="AA3" s="85"/>
-      <c r="AB3" s="85"/>
-      <c r="AC3" s="85"/>
-      <c r="AD3" s="85"/>
-      <c r="AE3" s="85"/>
-      <c r="AF3" s="85"/>
-      <c r="AG3" s="85"/>
-      <c r="AH3" s="85"/>
-      <c r="AI3" s="85"/>
-      <c r="AJ3" s="85"/>
-      <c r="AK3" s="85"/>
-      <c r="AL3" s="85"/>
-      <c r="AM3" s="85"/>
-      <c r="AN3" s="86"/>
+      <c r="L3" s="76"/>
+      <c r="M3" s="77"/>
+      <c r="N3" s="78"/>
+      <c r="O3" s="79"/>
+      <c r="P3" s="79"/>
+      <c r="Q3" s="79"/>
+      <c r="R3" s="79"/>
+      <c r="S3" s="79"/>
+      <c r="T3" s="79"/>
+      <c r="U3" s="79"/>
+      <c r="V3" s="79"/>
+      <c r="W3" s="79"/>
+      <c r="X3" s="79"/>
+      <c r="Y3" s="79"/>
+      <c r="Z3" s="79"/>
+      <c r="AA3" s="79"/>
+      <c r="AB3" s="79"/>
+      <c r="AC3" s="79"/>
+      <c r="AD3" s="79"/>
+      <c r="AE3" s="79"/>
+      <c r="AF3" s="79"/>
+      <c r="AG3" s="79"/>
+      <c r="AH3" s="79"/>
+      <c r="AI3" s="79"/>
+      <c r="AJ3" s="79"/>
+      <c r="AK3" s="79"/>
+      <c r="AL3" s="79"/>
+      <c r="AM3" s="79"/>
+      <c r="AN3" s="80"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1">
       <c r="B4" s="2"/>
@@ -40042,7 +40042,7 @@
         <v>1</v>
       </c>
       <c r="D79" s="16" t="s">
-        <v>75</v>
+        <v>116</v>
       </c>
       <c r="E79" s="17"/>
       <c r="F79" s="17"/>
@@ -40090,13 +40090,13 @@
         <v>2</v>
       </c>
       <c r="D80" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E80" s="17"/>
       <c r="F80" s="17"/>
       <c r="G80" s="15"/>
       <c r="H80" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I80" s="18"/>
       <c r="J80" s="17"/>
@@ -40138,13 +40138,13 @@
         <v>3</v>
       </c>
       <c r="D81" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E81" s="17"/>
       <c r="F81" s="17"/>
       <c r="G81" s="15"/>
       <c r="H81" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I81" s="18"/>
       <c r="J81" s="17"/>
@@ -40186,13 +40186,13 @@
         <v>4</v>
       </c>
       <c r="D82" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E82" s="17"/>
       <c r="F82" s="17"/>
       <c r="G82" s="15"/>
       <c r="H82" s="16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I82" s="18"/>
       <c r="J82" s="17"/>
@@ -40234,13 +40234,13 @@
         <v>5</v>
       </c>
       <c r="D83" s="16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E83" s="17"/>
       <c r="F83" s="17"/>
       <c r="G83" s="15"/>
       <c r="H83" s="16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I83" s="18"/>
       <c r="J83" s="17"/>
@@ -40282,13 +40282,13 @@
         <v>6</v>
       </c>
       <c r="D84" s="16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E84" s="17"/>
       <c r="F84" s="17"/>
       <c r="G84" s="15"/>
       <c r="H84" s="16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I84" s="18"/>
       <c r="J84" s="17"/>
@@ -40330,13 +40330,13 @@
         <v>7</v>
       </c>
       <c r="D85" s="16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E85" s="17"/>
       <c r="F85" s="17"/>
       <c r="G85" s="15"/>
       <c r="H85" s="16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I85" s="18"/>
       <c r="J85" s="17"/>
@@ -40378,13 +40378,13 @@
         <v>8</v>
       </c>
       <c r="D86" s="16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E86" s="17"/>
       <c r="F86" s="17"/>
       <c r="G86" s="15"/>
       <c r="H86" s="16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I86" s="18"/>
       <c r="J86" s="17"/>
@@ -40426,13 +40426,13 @@
         <v>9</v>
       </c>
       <c r="D87" s="16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E87" s="17"/>
       <c r="F87" s="17"/>
       <c r="G87" s="15"/>
       <c r="H87" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I87" s="18"/>
       <c r="J87" s="17"/>
@@ -41433,146 +41433,146 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="79" t="s">
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
-      <c r="W1" s="79" t="s">
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
+      <c r="S1" s="74"/>
+      <c r="T1" s="74"/>
+      <c r="U1" s="74"/>
+      <c r="V1" s="74"/>
+      <c r="W1" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="79"/>
-      <c r="Y1" s="79"/>
-      <c r="Z1" s="79"/>
-      <c r="AA1" s="79"/>
-      <c r="AB1" s="79"/>
-      <c r="AC1" s="79"/>
-      <c r="AD1" s="79"/>
-      <c r="AE1" s="79"/>
-      <c r="AF1" s="80" t="s">
+      <c r="X1" s="74"/>
+      <c r="Y1" s="74"/>
+      <c r="Z1" s="74"/>
+      <c r="AA1" s="74"/>
+      <c r="AB1" s="74"/>
+      <c r="AC1" s="74"/>
+      <c r="AD1" s="74"/>
+      <c r="AE1" s="74"/>
+      <c r="AF1" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="80"/>
-      <c r="AH1" s="64"/>
-      <c r="AI1" s="64"/>
-      <c r="AJ1" s="64"/>
-      <c r="AK1" s="64"/>
-      <c r="AL1" s="64"/>
-      <c r="AM1" s="64"/>
-      <c r="AN1" s="65"/>
+      <c r="AG1" s="87"/>
+      <c r="AH1" s="81"/>
+      <c r="AI1" s="81"/>
+      <c r="AJ1" s="81"/>
+      <c r="AK1" s="81"/>
+      <c r="AL1" s="81"/>
+      <c r="AM1" s="81"/>
+      <c r="AN1" s="82"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1">
-      <c r="A2" s="73"/>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="66" t="s">
+      <c r="A2" s="68"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="66"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="66"/>
-      <c r="O2" s="66"/>
-      <c r="P2" s="66"/>
-      <c r="Q2" s="66"/>
-      <c r="R2" s="66"/>
-      <c r="S2" s="66"/>
-      <c r="T2" s="66"/>
-      <c r="U2" s="66"/>
-      <c r="V2" s="66"/>
-      <c r="W2" s="66" t="s">
+      <c r="L2" s="83"/>
+      <c r="M2" s="83"/>
+      <c r="N2" s="83"/>
+      <c r="O2" s="83"/>
+      <c r="P2" s="83"/>
+      <c r="Q2" s="83"/>
+      <c r="R2" s="83"/>
+      <c r="S2" s="83"/>
+      <c r="T2" s="83"/>
+      <c r="U2" s="83"/>
+      <c r="V2" s="83"/>
+      <c r="W2" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="66"/>
-      <c r="Y2" s="66"/>
-      <c r="Z2" s="66"/>
-      <c r="AA2" s="66"/>
-      <c r="AB2" s="66"/>
-      <c r="AC2" s="66"/>
-      <c r="AD2" s="66"/>
-      <c r="AE2" s="66"/>
-      <c r="AF2" s="67" t="s">
+      <c r="X2" s="83"/>
+      <c r="Y2" s="83"/>
+      <c r="Z2" s="83"/>
+      <c r="AA2" s="83"/>
+      <c r="AB2" s="83"/>
+      <c r="AC2" s="83"/>
+      <c r="AD2" s="83"/>
+      <c r="AE2" s="83"/>
+      <c r="AF2" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="67"/>
-      <c r="AH2" s="68"/>
-      <c r="AI2" s="68"/>
-      <c r="AJ2" s="68"/>
-      <c r="AK2" s="68"/>
-      <c r="AL2" s="68"/>
-      <c r="AM2" s="68"/>
-      <c r="AN2" s="69"/>
+      <c r="AG2" s="84"/>
+      <c r="AH2" s="85"/>
+      <c r="AI2" s="85"/>
+      <c r="AJ2" s="85"/>
+      <c r="AK2" s="85"/>
+      <c r="AL2" s="85"/>
+      <c r="AM2" s="85"/>
+      <c r="AN2" s="86"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1">
-      <c r="A3" s="76"/>
-      <c r="B3" s="77"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="81" t="s">
+      <c r="A3" s="71"/>
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="82"/>
-      <c r="M3" s="83"/>
-      <c r="N3" s="84"/>
-      <c r="O3" s="85"/>
-      <c r="P3" s="85"/>
-      <c r="Q3" s="85"/>
-      <c r="R3" s="85"/>
-      <c r="S3" s="85"/>
-      <c r="T3" s="85"/>
-      <c r="U3" s="85"/>
-      <c r="V3" s="85"/>
-      <c r="W3" s="85"/>
-      <c r="X3" s="85"/>
-      <c r="Y3" s="85"/>
-      <c r="Z3" s="85"/>
-      <c r="AA3" s="85"/>
-      <c r="AB3" s="85"/>
-      <c r="AC3" s="85"/>
-      <c r="AD3" s="85"/>
-      <c r="AE3" s="85"/>
-      <c r="AF3" s="85"/>
-      <c r="AG3" s="85"/>
-      <c r="AH3" s="85"/>
-      <c r="AI3" s="85"/>
-      <c r="AJ3" s="85"/>
-      <c r="AK3" s="85"/>
-      <c r="AL3" s="85"/>
-      <c r="AM3" s="85"/>
-      <c r="AN3" s="86"/>
+      <c r="L3" s="76"/>
+      <c r="M3" s="77"/>
+      <c r="N3" s="78"/>
+      <c r="O3" s="79"/>
+      <c r="P3" s="79"/>
+      <c r="Q3" s="79"/>
+      <c r="R3" s="79"/>
+      <c r="S3" s="79"/>
+      <c r="T3" s="79"/>
+      <c r="U3" s="79"/>
+      <c r="V3" s="79"/>
+      <c r="W3" s="79"/>
+      <c r="X3" s="79"/>
+      <c r="Y3" s="79"/>
+      <c r="Z3" s="79"/>
+      <c r="AA3" s="79"/>
+      <c r="AB3" s="79"/>
+      <c r="AC3" s="79"/>
+      <c r="AD3" s="79"/>
+      <c r="AE3" s="79"/>
+      <c r="AF3" s="79"/>
+      <c r="AG3" s="79"/>
+      <c r="AH3" s="79"/>
+      <c r="AI3" s="79"/>
+      <c r="AJ3" s="79"/>
+      <c r="AK3" s="79"/>
+      <c r="AL3" s="79"/>
+      <c r="AM3" s="79"/>
+      <c r="AN3" s="80"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1">
       <c r="B4" s="2"/>
@@ -45977,152 +45977,152 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="79" t="s">
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79" t="s">
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74" t="s">
         <v>36</v>
       </c>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
-      <c r="W1" s="79" t="s">
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
+      <c r="S1" s="74"/>
+      <c r="T1" s="74"/>
+      <c r="U1" s="74"/>
+      <c r="V1" s="74"/>
+      <c r="W1" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="79"/>
-      <c r="Y1" s="79" t="s">
+      <c r="X1" s="74"/>
+      <c r="Y1" s="74" t="s">
         <v>37</v>
       </c>
-      <c r="Z1" s="79"/>
-      <c r="AA1" s="79"/>
-      <c r="AB1" s="79"/>
-      <c r="AC1" s="79"/>
-      <c r="AD1" s="79"/>
-      <c r="AE1" s="79"/>
-      <c r="AF1" s="80" t="s">
+      <c r="Z1" s="74"/>
+      <c r="AA1" s="74"/>
+      <c r="AB1" s="74"/>
+      <c r="AC1" s="74"/>
+      <c r="AD1" s="74"/>
+      <c r="AE1" s="74"/>
+      <c r="AF1" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="80"/>
-      <c r="AH1" s="64"/>
-      <c r="AI1" s="64"/>
-      <c r="AJ1" s="64"/>
-      <c r="AK1" s="64"/>
-      <c r="AL1" s="64"/>
-      <c r="AM1" s="64"/>
-      <c r="AN1" s="65"/>
+      <c r="AG1" s="87"/>
+      <c r="AH1" s="81"/>
+      <c r="AI1" s="81"/>
+      <c r="AJ1" s="81"/>
+      <c r="AK1" s="81"/>
+      <c r="AL1" s="81"/>
+      <c r="AM1" s="81"/>
+      <c r="AN1" s="82"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1">
-      <c r="A2" s="73"/>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="66" t="s">
+      <c r="A2" s="68"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="66"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="66"/>
-      <c r="O2" s="66"/>
-      <c r="P2" s="66"/>
-      <c r="Q2" s="66"/>
-      <c r="R2" s="66"/>
-      <c r="S2" s="66"/>
-      <c r="T2" s="66"/>
-      <c r="U2" s="66"/>
-      <c r="V2" s="66"/>
-      <c r="W2" s="66" t="s">
+      <c r="L2" s="83"/>
+      <c r="M2" s="83"/>
+      <c r="N2" s="83"/>
+      <c r="O2" s="83"/>
+      <c r="P2" s="83"/>
+      <c r="Q2" s="83"/>
+      <c r="R2" s="83"/>
+      <c r="S2" s="83"/>
+      <c r="T2" s="83"/>
+      <c r="U2" s="83"/>
+      <c r="V2" s="83"/>
+      <c r="W2" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="66"/>
-      <c r="Y2" s="88">
+      <c r="X2" s="83"/>
+      <c r="Y2" s="89">
         <v>44351</v>
       </c>
-      <c r="Z2" s="66"/>
-      <c r="AA2" s="66"/>
-      <c r="AB2" s="66"/>
-      <c r="AC2" s="66"/>
-      <c r="AD2" s="66"/>
-      <c r="AE2" s="66"/>
-      <c r="AF2" s="67" t="s">
+      <c r="Z2" s="83"/>
+      <c r="AA2" s="83"/>
+      <c r="AB2" s="83"/>
+      <c r="AC2" s="83"/>
+      <c r="AD2" s="83"/>
+      <c r="AE2" s="83"/>
+      <c r="AF2" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="67"/>
-      <c r="AH2" s="68"/>
-      <c r="AI2" s="68"/>
-      <c r="AJ2" s="68"/>
-      <c r="AK2" s="68"/>
-      <c r="AL2" s="68"/>
-      <c r="AM2" s="68"/>
-      <c r="AN2" s="69"/>
+      <c r="AG2" s="84"/>
+      <c r="AH2" s="85"/>
+      <c r="AI2" s="85"/>
+      <c r="AJ2" s="85"/>
+      <c r="AK2" s="85"/>
+      <c r="AL2" s="85"/>
+      <c r="AM2" s="85"/>
+      <c r="AN2" s="86"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1">
-      <c r="A3" s="76"/>
-      <c r="B3" s="77"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="81" t="s">
+      <c r="A3" s="71"/>
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="82"/>
-      <c r="M3" s="83"/>
-      <c r="N3" s="84"/>
-      <c r="O3" s="85"/>
-      <c r="P3" s="85"/>
-      <c r="Q3" s="85"/>
-      <c r="R3" s="85"/>
-      <c r="S3" s="85"/>
-      <c r="T3" s="85"/>
-      <c r="U3" s="85"/>
-      <c r="V3" s="85"/>
-      <c r="W3" s="85"/>
-      <c r="X3" s="85"/>
-      <c r="Y3" s="85"/>
-      <c r="Z3" s="85"/>
-      <c r="AA3" s="85"/>
-      <c r="AB3" s="85"/>
-      <c r="AC3" s="85"/>
-      <c r="AD3" s="85"/>
-      <c r="AE3" s="85"/>
-      <c r="AF3" s="85"/>
-      <c r="AG3" s="85"/>
-      <c r="AH3" s="85"/>
-      <c r="AI3" s="85"/>
-      <c r="AJ3" s="85"/>
-      <c r="AK3" s="85"/>
-      <c r="AL3" s="85"/>
-      <c r="AM3" s="85"/>
-      <c r="AN3" s="86"/>
+      <c r="L3" s="76"/>
+      <c r="M3" s="77"/>
+      <c r="N3" s="78"/>
+      <c r="O3" s="79"/>
+      <c r="P3" s="79"/>
+      <c r="Q3" s="79"/>
+      <c r="R3" s="79"/>
+      <c r="S3" s="79"/>
+      <c r="T3" s="79"/>
+      <c r="U3" s="79"/>
+      <c r="V3" s="79"/>
+      <c r="W3" s="79"/>
+      <c r="X3" s="79"/>
+      <c r="Y3" s="79"/>
+      <c r="Z3" s="79"/>
+      <c r="AA3" s="79"/>
+      <c r="AB3" s="79"/>
+      <c r="AC3" s="79"/>
+      <c r="AD3" s="79"/>
+      <c r="AE3" s="79"/>
+      <c r="AF3" s="79"/>
+      <c r="AG3" s="79"/>
+      <c r="AH3" s="79"/>
+      <c r="AI3" s="79"/>
+      <c r="AJ3" s="79"/>
+      <c r="AK3" s="79"/>
+      <c r="AL3" s="79"/>
+      <c r="AM3" s="79"/>
+      <c r="AN3" s="80"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1">
       <c r="B4" s="2"/>
@@ -50342,154 +50342,154 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="79" t="s">
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79" t="s">
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
-      <c r="W1" s="79" t="s">
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
+      <c r="S1" s="74"/>
+      <c r="T1" s="74"/>
+      <c r="U1" s="74"/>
+      <c r="V1" s="74"/>
+      <c r="W1" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="79"/>
-      <c r="Y1" s="79" t="s">
+      <c r="X1" s="74"/>
+      <c r="Y1" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="Z1" s="79"/>
-      <c r="AA1" s="79"/>
-      <c r="AB1" s="79"/>
-      <c r="AC1" s="79"/>
-      <c r="AD1" s="79"/>
-      <c r="AE1" s="79"/>
-      <c r="AF1" s="80" t="s">
+      <c r="Z1" s="74"/>
+      <c r="AA1" s="74"/>
+      <c r="AB1" s="74"/>
+      <c r="AC1" s="74"/>
+      <c r="AD1" s="74"/>
+      <c r="AE1" s="74"/>
+      <c r="AF1" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="80"/>
-      <c r="AH1" s="64"/>
-      <c r="AI1" s="64"/>
-      <c r="AJ1" s="64"/>
-      <c r="AK1" s="64"/>
-      <c r="AL1" s="64"/>
-      <c r="AM1" s="64"/>
-      <c r="AN1" s="65"/>
+      <c r="AG1" s="87"/>
+      <c r="AH1" s="81"/>
+      <c r="AI1" s="81"/>
+      <c r="AJ1" s="81"/>
+      <c r="AK1" s="81"/>
+      <c r="AL1" s="81"/>
+      <c r="AM1" s="81"/>
+      <c r="AN1" s="82"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1">
-      <c r="A2" s="73"/>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="66" t="s">
+      <c r="A2" s="68"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="66"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="66"/>
-      <c r="O2" s="66"/>
-      <c r="P2" s="66"/>
-      <c r="Q2" s="66"/>
-      <c r="R2" s="66"/>
-      <c r="S2" s="66"/>
-      <c r="T2" s="66"/>
-      <c r="U2" s="66"/>
-      <c r="V2" s="66"/>
-      <c r="W2" s="66" t="s">
+      <c r="L2" s="83"/>
+      <c r="M2" s="83"/>
+      <c r="N2" s="83"/>
+      <c r="O2" s="83"/>
+      <c r="P2" s="83"/>
+      <c r="Q2" s="83"/>
+      <c r="R2" s="83"/>
+      <c r="S2" s="83"/>
+      <c r="T2" s="83"/>
+      <c r="U2" s="83"/>
+      <c r="V2" s="83"/>
+      <c r="W2" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="66"/>
-      <c r="Y2" s="89">
+      <c r="X2" s="83"/>
+      <c r="Y2" s="90">
         <v>44351</v>
       </c>
-      <c r="Z2" s="66"/>
-      <c r="AA2" s="66"/>
-      <c r="AB2" s="66"/>
-      <c r="AC2" s="66"/>
-      <c r="AD2" s="66"/>
-      <c r="AE2" s="66"/>
-      <c r="AF2" s="67" t="s">
+      <c r="Z2" s="83"/>
+      <c r="AA2" s="83"/>
+      <c r="AB2" s="83"/>
+      <c r="AC2" s="83"/>
+      <c r="AD2" s="83"/>
+      <c r="AE2" s="83"/>
+      <c r="AF2" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="67"/>
-      <c r="AH2" s="68"/>
-      <c r="AI2" s="68"/>
-      <c r="AJ2" s="68"/>
-      <c r="AK2" s="68"/>
-      <c r="AL2" s="68"/>
-      <c r="AM2" s="68"/>
-      <c r="AN2" s="69"/>
+      <c r="AG2" s="84"/>
+      <c r="AH2" s="85"/>
+      <c r="AI2" s="85"/>
+      <c r="AJ2" s="85"/>
+      <c r="AK2" s="85"/>
+      <c r="AL2" s="85"/>
+      <c r="AM2" s="85"/>
+      <c r="AN2" s="86"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1">
-      <c r="A3" s="76"/>
-      <c r="B3" s="77"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="81" t="s">
+      <c r="A3" s="71"/>
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="82"/>
-      <c r="M3" s="83"/>
-      <c r="N3" s="84" t="s">
+      <c r="L3" s="76"/>
+      <c r="M3" s="77"/>
+      <c r="N3" s="78" t="s">
         <v>35</v>
       </c>
-      <c r="O3" s="85"/>
-      <c r="P3" s="85"/>
-      <c r="Q3" s="85"/>
-      <c r="R3" s="85"/>
-      <c r="S3" s="85"/>
-      <c r="T3" s="85"/>
-      <c r="U3" s="85"/>
-      <c r="V3" s="85"/>
-      <c r="W3" s="85"/>
-      <c r="X3" s="85"/>
-      <c r="Y3" s="85"/>
-      <c r="Z3" s="85"/>
-      <c r="AA3" s="85"/>
-      <c r="AB3" s="85"/>
-      <c r="AC3" s="85"/>
-      <c r="AD3" s="85"/>
-      <c r="AE3" s="85"/>
-      <c r="AF3" s="85"/>
-      <c r="AG3" s="85"/>
-      <c r="AH3" s="85"/>
-      <c r="AI3" s="85"/>
-      <c r="AJ3" s="85"/>
-      <c r="AK3" s="85"/>
-      <c r="AL3" s="85"/>
-      <c r="AM3" s="85"/>
-      <c r="AN3" s="86"/>
+      <c r="O3" s="79"/>
+      <c r="P3" s="79"/>
+      <c r="Q3" s="79"/>
+      <c r="R3" s="79"/>
+      <c r="S3" s="79"/>
+      <c r="T3" s="79"/>
+      <c r="U3" s="79"/>
+      <c r="V3" s="79"/>
+      <c r="W3" s="79"/>
+      <c r="X3" s="79"/>
+      <c r="Y3" s="79"/>
+      <c r="Z3" s="79"/>
+      <c r="AA3" s="79"/>
+      <c r="AB3" s="79"/>
+      <c r="AC3" s="79"/>
+      <c r="AD3" s="79"/>
+      <c r="AE3" s="79"/>
+      <c r="AF3" s="79"/>
+      <c r="AG3" s="79"/>
+      <c r="AH3" s="79"/>
+      <c r="AI3" s="79"/>
+      <c r="AJ3" s="79"/>
+      <c r="AK3" s="79"/>
+      <c r="AL3" s="79"/>
+      <c r="AM3" s="79"/>
+      <c r="AN3" s="80"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1">
       <c r="B4" s="2"/>
@@ -54926,154 +54926,154 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="79" t="s">
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79" t="s">
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
-      <c r="W1" s="79" t="s">
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
+      <c r="S1" s="74"/>
+      <c r="T1" s="74"/>
+      <c r="U1" s="74"/>
+      <c r="V1" s="74"/>
+      <c r="W1" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="79"/>
-      <c r="Y1" s="79" t="s">
+      <c r="X1" s="74"/>
+      <c r="Y1" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="Z1" s="79"/>
-      <c r="AA1" s="79"/>
-      <c r="AB1" s="79"/>
-      <c r="AC1" s="79"/>
-      <c r="AD1" s="79"/>
-      <c r="AE1" s="79"/>
-      <c r="AF1" s="80" t="s">
+      <c r="Z1" s="74"/>
+      <c r="AA1" s="74"/>
+      <c r="AB1" s="74"/>
+      <c r="AC1" s="74"/>
+      <c r="AD1" s="74"/>
+      <c r="AE1" s="74"/>
+      <c r="AF1" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="80"/>
-      <c r="AH1" s="64"/>
-      <c r="AI1" s="64"/>
-      <c r="AJ1" s="64"/>
-      <c r="AK1" s="64"/>
-      <c r="AL1" s="64"/>
-      <c r="AM1" s="64"/>
-      <c r="AN1" s="65"/>
+      <c r="AG1" s="87"/>
+      <c r="AH1" s="81"/>
+      <c r="AI1" s="81"/>
+      <c r="AJ1" s="81"/>
+      <c r="AK1" s="81"/>
+      <c r="AL1" s="81"/>
+      <c r="AM1" s="81"/>
+      <c r="AN1" s="82"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1">
-      <c r="A2" s="73"/>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="66" t="s">
+      <c r="A2" s="68"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="66"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="66"/>
-      <c r="O2" s="66"/>
-      <c r="P2" s="66"/>
-      <c r="Q2" s="66"/>
-      <c r="R2" s="66"/>
-      <c r="S2" s="66"/>
-      <c r="T2" s="66"/>
-      <c r="U2" s="66"/>
-      <c r="V2" s="66"/>
-      <c r="W2" s="66" t="s">
+      <c r="L2" s="83"/>
+      <c r="M2" s="83"/>
+      <c r="N2" s="83"/>
+      <c r="O2" s="83"/>
+      <c r="P2" s="83"/>
+      <c r="Q2" s="83"/>
+      <c r="R2" s="83"/>
+      <c r="S2" s="83"/>
+      <c r="T2" s="83"/>
+      <c r="U2" s="83"/>
+      <c r="V2" s="83"/>
+      <c r="W2" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="66"/>
-      <c r="Y2" s="89">
+      <c r="X2" s="83"/>
+      <c r="Y2" s="90">
         <v>44351</v>
       </c>
-      <c r="Z2" s="66"/>
-      <c r="AA2" s="66"/>
-      <c r="AB2" s="66"/>
-      <c r="AC2" s="66"/>
-      <c r="AD2" s="66"/>
-      <c r="AE2" s="66"/>
-      <c r="AF2" s="67" t="s">
+      <c r="Z2" s="83"/>
+      <c r="AA2" s="83"/>
+      <c r="AB2" s="83"/>
+      <c r="AC2" s="83"/>
+      <c r="AD2" s="83"/>
+      <c r="AE2" s="83"/>
+      <c r="AF2" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="67"/>
-      <c r="AH2" s="68"/>
-      <c r="AI2" s="68"/>
-      <c r="AJ2" s="68"/>
-      <c r="AK2" s="68"/>
-      <c r="AL2" s="68"/>
-      <c r="AM2" s="68"/>
-      <c r="AN2" s="69"/>
+      <c r="AG2" s="84"/>
+      <c r="AH2" s="85"/>
+      <c r="AI2" s="85"/>
+      <c r="AJ2" s="85"/>
+      <c r="AK2" s="85"/>
+      <c r="AL2" s="85"/>
+      <c r="AM2" s="85"/>
+      <c r="AN2" s="86"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1">
-      <c r="A3" s="76"/>
-      <c r="B3" s="77"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="81" t="s">
+      <c r="A3" s="71"/>
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="82"/>
-      <c r="M3" s="83"/>
-      <c r="N3" s="84" t="s">
+      <c r="L3" s="76"/>
+      <c r="M3" s="77"/>
+      <c r="N3" s="78" t="s">
         <v>35</v>
       </c>
-      <c r="O3" s="85"/>
-      <c r="P3" s="85"/>
-      <c r="Q3" s="85"/>
-      <c r="R3" s="85"/>
-      <c r="S3" s="85"/>
-      <c r="T3" s="85"/>
-      <c r="U3" s="85"/>
-      <c r="V3" s="85"/>
-      <c r="W3" s="85"/>
-      <c r="X3" s="85"/>
-      <c r="Y3" s="85"/>
-      <c r="Z3" s="85"/>
-      <c r="AA3" s="85"/>
-      <c r="AB3" s="85"/>
-      <c r="AC3" s="85"/>
-      <c r="AD3" s="85"/>
-      <c r="AE3" s="85"/>
-      <c r="AF3" s="85"/>
-      <c r="AG3" s="85"/>
-      <c r="AH3" s="85"/>
-      <c r="AI3" s="85"/>
-      <c r="AJ3" s="85"/>
-      <c r="AK3" s="85"/>
-      <c r="AL3" s="85"/>
-      <c r="AM3" s="85"/>
-      <c r="AN3" s="86"/>
+      <c r="O3" s="79"/>
+      <c r="P3" s="79"/>
+      <c r="Q3" s="79"/>
+      <c r="R3" s="79"/>
+      <c r="S3" s="79"/>
+      <c r="T3" s="79"/>
+      <c r="U3" s="79"/>
+      <c r="V3" s="79"/>
+      <c r="W3" s="79"/>
+      <c r="X3" s="79"/>
+      <c r="Y3" s="79"/>
+      <c r="Z3" s="79"/>
+      <c r="AA3" s="79"/>
+      <c r="AB3" s="79"/>
+      <c r="AC3" s="79"/>
+      <c r="AD3" s="79"/>
+      <c r="AE3" s="79"/>
+      <c r="AF3" s="79"/>
+      <c r="AG3" s="79"/>
+      <c r="AH3" s="79"/>
+      <c r="AI3" s="79"/>
+      <c r="AJ3" s="79"/>
+      <c r="AK3" s="79"/>
+      <c r="AL3" s="79"/>
+      <c r="AM3" s="79"/>
+      <c r="AN3" s="80"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1">
       <c r="B4" s="2"/>
@@ -59505,7 +59505,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDF9EA8B-7ADC-4CC9-B157-9FC5BE827C84}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D92" sqref="D92"/>
     </sheetView>
   </sheetViews>
@@ -59515,154 +59515,154 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="79" t="s">
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79" t="s">
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
-      <c r="W1" s="79" t="s">
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
+      <c r="S1" s="74"/>
+      <c r="T1" s="74"/>
+      <c r="U1" s="74"/>
+      <c r="V1" s="74"/>
+      <c r="W1" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="79"/>
-      <c r="Y1" s="79" t="s">
+      <c r="X1" s="74"/>
+      <c r="Y1" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="Z1" s="79"/>
-      <c r="AA1" s="79"/>
-      <c r="AB1" s="79"/>
-      <c r="AC1" s="79"/>
-      <c r="AD1" s="79"/>
-      <c r="AE1" s="79"/>
-      <c r="AF1" s="80" t="s">
+      <c r="Z1" s="74"/>
+      <c r="AA1" s="74"/>
+      <c r="AB1" s="74"/>
+      <c r="AC1" s="74"/>
+      <c r="AD1" s="74"/>
+      <c r="AE1" s="74"/>
+      <c r="AF1" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="80"/>
-      <c r="AH1" s="64"/>
-      <c r="AI1" s="64"/>
-      <c r="AJ1" s="64"/>
-      <c r="AK1" s="64"/>
-      <c r="AL1" s="64"/>
-      <c r="AM1" s="64"/>
-      <c r="AN1" s="65"/>
+      <c r="AG1" s="87"/>
+      <c r="AH1" s="81"/>
+      <c r="AI1" s="81"/>
+      <c r="AJ1" s="81"/>
+      <c r="AK1" s="81"/>
+      <c r="AL1" s="81"/>
+      <c r="AM1" s="81"/>
+      <c r="AN1" s="82"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1">
-      <c r="A2" s="73"/>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="66" t="s">
+      <c r="A2" s="68"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="66"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="66" t="s">
+      <c r="L2" s="83"/>
+      <c r="M2" s="83"/>
+      <c r="N2" s="83" t="s">
         <v>30</v>
       </c>
-      <c r="O2" s="66"/>
-      <c r="P2" s="66"/>
-      <c r="Q2" s="66"/>
-      <c r="R2" s="66"/>
-      <c r="S2" s="66"/>
-      <c r="T2" s="66"/>
-      <c r="U2" s="66"/>
-      <c r="V2" s="66"/>
-      <c r="W2" s="66" t="s">
+      <c r="O2" s="83"/>
+      <c r="P2" s="83"/>
+      <c r="Q2" s="83"/>
+      <c r="R2" s="83"/>
+      <c r="S2" s="83"/>
+      <c r="T2" s="83"/>
+      <c r="U2" s="83"/>
+      <c r="V2" s="83"/>
+      <c r="W2" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="66"/>
-      <c r="Y2" s="87">
+      <c r="X2" s="83"/>
+      <c r="Y2" s="88">
         <v>44350</v>
       </c>
-      <c r="Z2" s="66"/>
-      <c r="AA2" s="66"/>
-      <c r="AB2" s="66"/>
-      <c r="AC2" s="66"/>
-      <c r="AD2" s="66"/>
-      <c r="AE2" s="66"/>
-      <c r="AF2" s="67" t="s">
+      <c r="Z2" s="83"/>
+      <c r="AA2" s="83"/>
+      <c r="AB2" s="83"/>
+      <c r="AC2" s="83"/>
+      <c r="AD2" s="83"/>
+      <c r="AE2" s="83"/>
+      <c r="AF2" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="67"/>
-      <c r="AH2" s="68"/>
-      <c r="AI2" s="68"/>
-      <c r="AJ2" s="68"/>
-      <c r="AK2" s="68"/>
-      <c r="AL2" s="68"/>
-      <c r="AM2" s="68"/>
-      <c r="AN2" s="69"/>
+      <c r="AG2" s="84"/>
+      <c r="AH2" s="85"/>
+      <c r="AI2" s="85"/>
+      <c r="AJ2" s="85"/>
+      <c r="AK2" s="85"/>
+      <c r="AL2" s="85"/>
+      <c r="AM2" s="85"/>
+      <c r="AN2" s="86"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1">
-      <c r="A3" s="76"/>
-      <c r="B3" s="77"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="81" t="s">
+      <c r="A3" s="71"/>
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="82"/>
-      <c r="M3" s="83"/>
-      <c r="N3" s="84"/>
-      <c r="O3" s="85"/>
-      <c r="P3" s="85"/>
-      <c r="Q3" s="85"/>
-      <c r="R3" s="85"/>
-      <c r="S3" s="85"/>
-      <c r="T3" s="85"/>
-      <c r="U3" s="85"/>
-      <c r="V3" s="85"/>
-      <c r="W3" s="85"/>
-      <c r="X3" s="85"/>
-      <c r="Y3" s="85"/>
-      <c r="Z3" s="85"/>
-      <c r="AA3" s="85"/>
-      <c r="AB3" s="85"/>
-      <c r="AC3" s="85"/>
-      <c r="AD3" s="85"/>
-      <c r="AE3" s="85"/>
-      <c r="AF3" s="85"/>
-      <c r="AG3" s="85"/>
-      <c r="AH3" s="85"/>
-      <c r="AI3" s="85"/>
-      <c r="AJ3" s="85"/>
-      <c r="AK3" s="85"/>
-      <c r="AL3" s="85"/>
-      <c r="AM3" s="85"/>
-      <c r="AN3" s="86"/>
+      <c r="L3" s="76"/>
+      <c r="M3" s="77"/>
+      <c r="N3" s="78"/>
+      <c r="O3" s="79"/>
+      <c r="P3" s="79"/>
+      <c r="Q3" s="79"/>
+      <c r="R3" s="79"/>
+      <c r="S3" s="79"/>
+      <c r="T3" s="79"/>
+      <c r="U3" s="79"/>
+      <c r="V3" s="79"/>
+      <c r="W3" s="79"/>
+      <c r="X3" s="79"/>
+      <c r="Y3" s="79"/>
+      <c r="Z3" s="79"/>
+      <c r="AA3" s="79"/>
+      <c r="AB3" s="79"/>
+      <c r="AC3" s="79"/>
+      <c r="AD3" s="79"/>
+      <c r="AE3" s="79"/>
+      <c r="AF3" s="79"/>
+      <c r="AG3" s="79"/>
+      <c r="AH3" s="79"/>
+      <c r="AI3" s="79"/>
+      <c r="AJ3" s="79"/>
+      <c r="AK3" s="79"/>
+      <c r="AL3" s="79"/>
+      <c r="AM3" s="79"/>
+      <c r="AN3" s="80"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1">
       <c r="B4" s="2"/>
@@ -62711,13 +62711,13 @@
         <v>1</v>
       </c>
       <c r="D79" s="16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E79" s="17"/>
       <c r="F79" s="17"/>
       <c r="G79" s="15"/>
       <c r="H79" s="16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I79" s="18"/>
       <c r="J79" s="17"/>
@@ -62759,13 +62759,13 @@
         <v>2</v>
       </c>
       <c r="D80" s="16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E80" s="17"/>
       <c r="F80" s="17"/>
       <c r="G80" s="15"/>
       <c r="H80" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I80" s="18"/>
       <c r="J80" s="17"/>
@@ -62807,13 +62807,13 @@
         <v>3</v>
       </c>
       <c r="D81" s="16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E81" s="17"/>
       <c r="F81" s="17"/>
       <c r="G81" s="15"/>
       <c r="H81" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I81" s="18"/>
       <c r="J81" s="17"/>
@@ -62855,13 +62855,13 @@
         <v>4</v>
       </c>
       <c r="D82" s="16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E82" s="17"/>
       <c r="F82" s="17"/>
       <c r="G82" s="15"/>
       <c r="H82" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I82" s="18"/>
       <c r="J82" s="17"/>
@@ -62902,14 +62902,14 @@
       <c r="C83" s="15">
         <v>5</v>
       </c>
-      <c r="D83" s="99" t="s">
-        <v>114</v>
+      <c r="D83" s="64" t="s">
+        <v>113</v>
       </c>
       <c r="E83" s="17"/>
       <c r="F83" s="17"/>
       <c r="G83" s="15"/>
       <c r="H83" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I83" s="18"/>
       <c r="J83" s="17"/>
@@ -62951,13 +62951,13 @@
         <v>6</v>
       </c>
       <c r="D84" s="16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E84" s="17"/>
       <c r="F84" s="17"/>
       <c r="G84" s="15"/>
       <c r="H84" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I84" s="18"/>
       <c r="J84" s="17"/>
@@ -62999,13 +62999,13 @@
         <v>7</v>
       </c>
       <c r="D85" s="16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E85" s="17"/>
       <c r="F85" s="17"/>
       <c r="G85" s="15"/>
       <c r="H85" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I85" s="18"/>
       <c r="J85" s="17"/>
@@ -63047,13 +63047,13 @@
         <v>8</v>
       </c>
       <c r="D86" s="16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E86" s="17"/>
       <c r="F86" s="17"/>
       <c r="G86" s="15"/>
       <c r="H86" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I86" s="18"/>
       <c r="J86" s="17"/>
@@ -63095,13 +63095,13 @@
         <v>9</v>
       </c>
       <c r="D87" s="16" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E87" s="17"/>
       <c r="F87" s="17"/>
       <c r="G87" s="15"/>
       <c r="H87" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I87" s="18"/>
       <c r="J87" s="17"/>
@@ -63143,13 +63143,13 @@
         <v>10</v>
       </c>
       <c r="D88" s="16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E88" s="17"/>
       <c r="F88" s="17"/>
       <c r="G88" s="15"/>
       <c r="H88" s="16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I88" s="18"/>
       <c r="J88" s="17"/>
@@ -63191,13 +63191,13 @@
         <v>11</v>
       </c>
       <c r="D89" s="16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E89" s="17"/>
       <c r="F89" s="17"/>
       <c r="G89" s="15"/>
       <c r="H89" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I89" s="18"/>
       <c r="J89" s="17"/>
@@ -63239,13 +63239,13 @@
         <v>12</v>
       </c>
       <c r="D90" s="16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E90" s="17"/>
       <c r="F90" s="17"/>
       <c r="G90" s="15"/>
       <c r="H90" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I90" s="18"/>
       <c r="J90" s="17"/>
@@ -63287,13 +63287,13 @@
         <v>13</v>
       </c>
       <c r="D91" s="16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E91" s="17"/>
       <c r="F91" s="17"/>
       <c r="G91" s="15"/>
       <c r="H91" s="16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I91" s="18"/>
       <c r="J91" s="17"/>
@@ -63335,13 +63335,13 @@
         <v>14</v>
       </c>
       <c r="D92" s="16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E92" s="17"/>
       <c r="F92" s="17"/>
       <c r="G92" s="15"/>
       <c r="H92" s="16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I92" s="18"/>
       <c r="J92" s="17"/>
